--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rtn4-Rtn4rl1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>63.211268</v>
+        <v>13.32779766666667</v>
       </c>
       <c r="H2">
-        <v>189.633804</v>
+        <v>39.983393</v>
       </c>
       <c r="I2">
-        <v>0.4922609885657722</v>
+        <v>0.1697233513642653</v>
       </c>
       <c r="J2">
-        <v>0.4922609885657722</v>
+        <v>0.1697233513642653</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.128483</v>
+        <v>0.116143</v>
       </c>
       <c r="N2">
-        <v>0.385449</v>
+        <v>0.348429</v>
       </c>
       <c r="O2">
-        <v>0.01580103135560779</v>
+        <v>0.01430514908838541</v>
       </c>
       <c r="P2">
-        <v>0.01580103135560779</v>
+        <v>0.01430514908838541</v>
       </c>
       <c r="Q2">
-        <v>8.121573346443999</v>
+        <v>1.547930404399667</v>
       </c>
       <c r="R2">
-        <v>73.094160117996</v>
+        <v>13.931373639597</v>
       </c>
       <c r="S2">
-        <v>0.007778231315470255</v>
+        <v>0.002427917845046236</v>
       </c>
       <c r="T2">
-        <v>0.007778231315470255</v>
+        <v>0.002427917845046236</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>63.211268</v>
+        <v>13.32779766666667</v>
       </c>
       <c r="H3">
-        <v>189.633804</v>
+        <v>39.983393</v>
       </c>
       <c r="I3">
-        <v>0.4922609885657722</v>
+        <v>0.1697233513642653</v>
       </c>
       <c r="J3">
-        <v>0.4922609885657722</v>
+        <v>0.1697233513642653</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>13.65284</v>
       </c>
       <c r="O3">
-        <v>0.5596822223772701</v>
+        <v>0.5605328823946109</v>
       </c>
       <c r="P3">
-        <v>0.5596822223772699</v>
+        <v>0.5605328823946107</v>
       </c>
       <c r="Q3">
-        <v>287.6711094003734</v>
+        <v>60.65409636512445</v>
       </c>
       <c r="R3">
-        <v>2589.03998460336</v>
+        <v>545.88686728612</v>
       </c>
       <c r="S3">
-        <v>0.2755097240701233</v>
+        <v>0.09513551934988494</v>
       </c>
       <c r="T3">
-        <v>0.2755097240701233</v>
+        <v>0.09513551934988493</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>63.211268</v>
+        <v>13.32779766666667</v>
       </c>
       <c r="H4">
-        <v>189.633804</v>
+        <v>39.983393</v>
       </c>
       <c r="I4">
-        <v>0.4922609885657722</v>
+        <v>0.1697233513642653</v>
       </c>
       <c r="J4">
-        <v>0.4922609885657722</v>
+        <v>0.1697233513642653</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>10.355625</v>
       </c>
       <c r="O4">
-        <v>0.4245167462671222</v>
+        <v>0.4251619685170038</v>
       </c>
       <c r="P4">
-        <v>0.4245167462671222</v>
+        <v>0.4251619685170038</v>
       </c>
       <c r="Q4">
-        <v>218.1973957275</v>
+        <v>46.005891570625</v>
       </c>
       <c r="R4">
-        <v>1963.7765615475</v>
+        <v>414.053024135625</v>
       </c>
       <c r="S4">
-        <v>0.2089730331801786</v>
+        <v>0.07215991416933415</v>
       </c>
       <c r="T4">
-        <v>0.2089730331801786</v>
+        <v>0.07215991416933415</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>129.921204</v>
       </c>
       <c r="I5">
-        <v>0.3372560111523963</v>
+        <v>0.5514955210569645</v>
       </c>
       <c r="J5">
-        <v>0.3372560111523963</v>
+        <v>0.5514955210569645</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.128483</v>
+        <v>0.116143</v>
       </c>
       <c r="N5">
-        <v>0.385449</v>
+        <v>0.348429</v>
       </c>
       <c r="O5">
-        <v>0.01580103135560779</v>
+        <v>0.01430514908838541</v>
       </c>
       <c r="P5">
-        <v>0.01580103135560779</v>
+        <v>0.01430514908838541</v>
       </c>
       <c r="Q5">
-        <v>5.564222017843998</v>
+        <v>5.029812798724</v>
       </c>
       <c r="R5">
-        <v>50.077998160596</v>
+        <v>45.26831518851599</v>
       </c>
       <c r="S5">
-        <v>0.005328992807086226</v>
+        <v>0.00788922565029667</v>
       </c>
       <c r="T5">
-        <v>0.005328992807086226</v>
+        <v>0.00788922565029667</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>129.921204</v>
       </c>
       <c r="I6">
-        <v>0.3372560111523963</v>
+        <v>0.5514955210569645</v>
       </c>
       <c r="J6">
-        <v>0.3372560111523963</v>
+        <v>0.5514955210569645</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>13.65284</v>
       </c>
       <c r="O6">
-        <v>0.5596822223772701</v>
+        <v>0.5605328823946109</v>
       </c>
       <c r="P6">
-        <v>0.5596822223772699</v>
+        <v>0.5605328823946107</v>
       </c>
       <c r="Q6">
         <v>197.0881567577067</v>
@@ -818,10 +818,10 @@
         <v>1773.79341081936</v>
       </c>
       <c r="S6">
-        <v>0.1887561938318666</v>
+        <v>0.3091313740457781</v>
       </c>
       <c r="T6">
-        <v>0.1887561938318665</v>
+        <v>0.3091313740457781</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>129.921204</v>
       </c>
       <c r="I7">
-        <v>0.3372560111523963</v>
+        <v>0.5514955210569645</v>
       </c>
       <c r="J7">
-        <v>0.3372560111523963</v>
+        <v>0.5514955210569645</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>10.355625</v>
       </c>
       <c r="O7">
-        <v>0.4245167462671222</v>
+        <v>0.4251619685170038</v>
       </c>
       <c r="P7">
-        <v>0.4245167462671222</v>
+        <v>0.4251619685170038</v>
       </c>
       <c r="Q7">
         <v>149.4905853525</v>
@@ -880,10 +880,10 @@
         <v>1345.4152681725</v>
       </c>
       <c r="S7">
-        <v>0.1431708245134436</v>
+        <v>0.2344749213608898</v>
       </c>
       <c r="T7">
-        <v>0.1431708245134436</v>
+        <v>0.2344749213608898</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,43 +909,43 @@
         <v>21.891734</v>
       </c>
       <c r="H8">
-        <v>65.675202</v>
+        <v>65.67520200000001</v>
       </c>
       <c r="I8">
-        <v>0.1704830002818315</v>
+        <v>0.27878112757877</v>
       </c>
       <c r="J8">
-        <v>0.1704830002818315</v>
+        <v>0.27878112757877</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.128483</v>
+        <v>0.116143</v>
       </c>
       <c r="N8">
-        <v>0.385449</v>
+        <v>0.348429</v>
       </c>
       <c r="O8">
-        <v>0.01580103135560779</v>
+        <v>0.01430514908838541</v>
       </c>
       <c r="P8">
-        <v>0.01580103135560779</v>
+        <v>0.01430514908838541</v>
       </c>
       <c r="Q8">
-        <v>2.812715659522</v>
+        <v>2.542571661962</v>
       </c>
       <c r="R8">
-        <v>25.314440935698</v>
+        <v>22.883144957658</v>
       </c>
       <c r="S8">
-        <v>0.002693807233051312</v>
+        <v>0.003988005593042498</v>
       </c>
       <c r="T8">
-        <v>0.002693807233051311</v>
+        <v>0.003988005593042498</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>21.891734</v>
       </c>
       <c r="H9">
-        <v>65.675202</v>
+        <v>65.67520200000001</v>
       </c>
       <c r="I9">
-        <v>0.1704830002818315</v>
+        <v>0.27878112757877</v>
       </c>
       <c r="J9">
-        <v>0.1704830002818315</v>
+        <v>0.27878112757877</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>13.65284</v>
       </c>
       <c r="O9">
-        <v>0.5596822223772701</v>
+        <v>0.5605328823946109</v>
       </c>
       <c r="P9">
-        <v>0.5596822223772699</v>
+        <v>0.5605328823946107</v>
       </c>
       <c r="Q9">
-        <v>99.62811387485334</v>
+        <v>99.62811387485337</v>
       </c>
       <c r="R9">
-        <v>896.65302487368</v>
+        <v>896.6530248736802</v>
       </c>
       <c r="S9">
-        <v>0.09541630447528021</v>
+        <v>0.1562659889989477</v>
       </c>
       <c r="T9">
-        <v>0.09541630447528017</v>
+        <v>0.1562659889989477</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>21.891734</v>
       </c>
       <c r="H10">
-        <v>65.675202</v>
+        <v>65.67520200000001</v>
       </c>
       <c r="I10">
-        <v>0.1704830002818315</v>
+        <v>0.27878112757877</v>
       </c>
       <c r="J10">
-        <v>0.1704830002818315</v>
+        <v>0.27878112757877</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>10.355625</v>
       </c>
       <c r="O10">
-        <v>0.4245167462671222</v>
+        <v>0.4251619685170038</v>
       </c>
       <c r="P10">
-        <v>0.4245167462671222</v>
+        <v>0.4251619685170038</v>
       </c>
       <c r="Q10">
-        <v>75.56752930124999</v>
+        <v>75.56752930125</v>
       </c>
       <c r="R10">
-        <v>680.10776371125</v>
+        <v>680.1077637112501</v>
       </c>
       <c r="S10">
-        <v>0.07237288857349998</v>
+        <v>0.1185271329867799</v>
       </c>
       <c r="T10">
-        <v>0.07237288857349997</v>
+        <v>0.1185271329867799</v>
       </c>
     </row>
   </sheetData>
